--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -43,36 +43,39 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>scary</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -82,28 +85,25 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -554,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -583,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -601,19 +601,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,19 +651,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -683,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.6140350877192983</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -733,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.5862068965517241</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,16 +804,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.4833333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -851,31 +851,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>0.55</v>
+      </c>
+      <c r="L9">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>27</v>
-      </c>
-      <c r="K9">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L9">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +883,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.675</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.05919854280510018</v>
+        <v>0.05828779599271403</v>
       </c>
       <c r="L10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -933,13 +933,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,31 +951,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.006912442396313364</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1724</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4782608695652174</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1001,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1035,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3404255319148936</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1053,7 +1029,33 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
